--- a/src/test/java/TestData/Nopcomdtadriven.xlsx
+++ b/src/test/java/TestData/Nopcomdtadriven.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PragatiSharma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PragatiSharma\IdeaProjects\NopCommerceBddPropertiesAndExcel\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,10 +53,10 @@
     <t>Sahil</t>
   </si>
   <si>
-    <t>jhkj</t>
-  </si>
-  <si>
     <t>qwerty123</t>
+  </si>
+  <si>
+    <t>Sharma</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -433,10 +433,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
